--- a/natmiOut/OldD2/LR-pairs_lrc2p/Mmp9-Ephb2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Mmp9-Ephb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.74972023968556</v>
+        <v>1.770634</v>
       </c>
       <c r="H2">
-        <v>1.74972023968556</v>
+        <v>5.311902</v>
       </c>
       <c r="I2">
-        <v>0.2643543951600681</v>
+        <v>0.2258515124762303</v>
       </c>
       <c r="J2">
-        <v>0.2643543951600681</v>
+        <v>0.2302920635867541</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.8783055092127</v>
+        <v>3.082080666666666</v>
       </c>
       <c r="N2">
-        <v>2.8783055092127</v>
+        <v>9.246241999999999</v>
       </c>
       <c r="O2">
-        <v>0.83605129775894</v>
+        <v>0.822428495022819</v>
       </c>
       <c r="P2">
-        <v>0.83605129775894</v>
+        <v>0.8679967027127143</v>
       </c>
       <c r="Q2">
-        <v>5.036229405467913</v>
+        <v>5.457236819142666</v>
       </c>
       <c r="R2">
-        <v>5.036229405467913</v>
+        <v>49.11513137228399</v>
       </c>
       <c r="S2">
-        <v>0.2210138351418546</v>
+        <v>0.1857467195044535</v>
       </c>
       <c r="T2">
-        <v>0.2210138351418546</v>
+        <v>0.1998927518542093</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.74972023968556</v>
+        <v>1.770634</v>
       </c>
       <c r="H3">
-        <v>1.74972023968556</v>
+        <v>5.311902</v>
       </c>
       <c r="I3">
-        <v>0.2643543951600681</v>
+        <v>0.2258515124762303</v>
       </c>
       <c r="J3">
-        <v>0.2643543951600681</v>
+        <v>0.2302920635867541</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0166510490548062</v>
+        <v>0.01806466666666666</v>
       </c>
       <c r="N3">
-        <v>0.0166510490548062</v>
+        <v>0.05419399999999999</v>
       </c>
       <c r="O3">
-        <v>0.004836571770008642</v>
+        <v>0.004820411347579552</v>
       </c>
       <c r="P3">
-        <v>0.004836571770008642</v>
+        <v>0.005087495363717804</v>
       </c>
       <c r="Q3">
-        <v>0.02913467754319152</v>
+        <v>0.03198591299866666</v>
       </c>
       <c r="R3">
-        <v>0.02913467754319152</v>
+        <v>0.2878732169879999</v>
       </c>
       <c r="S3">
-        <v>0.001278569004908895</v>
+        <v>0.001088697193608425</v>
       </c>
       <c r="T3">
-        <v>0.001278569004908895</v>
+        <v>0.001171609805798617</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.74972023968556</v>
+        <v>1.770634</v>
       </c>
       <c r="H4">
-        <v>1.74972023968556</v>
+        <v>5.311902</v>
       </c>
       <c r="I4">
-        <v>0.2643543951600681</v>
+        <v>0.2258515124762303</v>
       </c>
       <c r="J4">
-        <v>0.2643543951600681</v>
+        <v>0.2302920635867541</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.547781365742757</v>
+        <v>0.057175</v>
       </c>
       <c r="N4">
-        <v>0.547781365742757</v>
+        <v>0.171525</v>
       </c>
       <c r="O4">
-        <v>0.1591121304710512</v>
+        <v>0.01525668997294134</v>
       </c>
       <c r="P4">
-        <v>0.1591121304710512</v>
+        <v>0.0161020157630309</v>
       </c>
       <c r="Q4">
-        <v>0.9584641425627003</v>
+        <v>0.10123599895</v>
       </c>
       <c r="R4">
-        <v>0.9584641425627003</v>
+        <v>0.91112399055</v>
       </c>
       <c r="S4">
-        <v>0.04206199101330459</v>
+        <v>0.003445746505769738</v>
       </c>
       <c r="T4">
-        <v>0.04206199101330459</v>
+        <v>0.003708166437974828</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.95139261063296</v>
+        <v>1.770634</v>
       </c>
       <c r="H5">
-        <v>3.95139261063296</v>
+        <v>5.311902</v>
       </c>
       <c r="I5">
-        <v>0.5969914389351504</v>
+        <v>0.2258515124762303</v>
       </c>
       <c r="J5">
-        <v>0.5969914389351504</v>
+        <v>0.2302920635867541</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.8783055092127</v>
+        <v>0.590216</v>
       </c>
       <c r="N5">
-        <v>2.8783055092127</v>
+        <v>1.180432</v>
       </c>
       <c r="O5">
-        <v>0.83605129775894</v>
+        <v>0.1574944036566601</v>
       </c>
       <c r="P5">
-        <v>0.83605129775894</v>
+        <v>0.1108137861605369</v>
       </c>
       <c r="Q5">
-        <v>11.3733151202472</v>
+        <v>1.045056516944</v>
       </c>
       <c r="R5">
-        <v>11.3733151202472</v>
+        <v>6.270339101664</v>
       </c>
       <c r="S5">
-        <v>0.4991154672727095</v>
+        <v>0.03557034927239863</v>
       </c>
       <c r="T5">
-        <v>0.4991154672727095</v>
+        <v>0.02551953548877132</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.95139261063296</v>
+        <v>4.999072666666667</v>
       </c>
       <c r="H6">
-        <v>3.95139261063296</v>
+        <v>14.997218</v>
       </c>
       <c r="I6">
-        <v>0.5969914389351504</v>
+        <v>0.6376518934716313</v>
       </c>
       <c r="J6">
-        <v>0.5969914389351504</v>
+        <v>0.6501890059870105</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0166510490548062</v>
+        <v>3.082080666666666</v>
       </c>
       <c r="N6">
-        <v>0.0166510490548062</v>
+        <v>9.246241999999999</v>
       </c>
       <c r="O6">
-        <v>0.004836571770008642</v>
+        <v>0.822428495022819</v>
       </c>
       <c r="P6">
-        <v>0.004836571770008642</v>
+        <v>0.8679967027127143</v>
       </c>
       <c r="Q6">
-        <v>0.06579483219444815</v>
+        <v>15.40754521719511</v>
       </c>
       <c r="R6">
-        <v>0.06579483219444815</v>
+        <v>138.667906954756</v>
       </c>
       <c r="S6">
-        <v>0.002887391940490586</v>
+        <v>0.5244230870963247</v>
       </c>
       <c r="T6">
-        <v>0.002887391940490586</v>
+        <v>0.5643619133367823</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.95139261063296</v>
+        <v>4.999072666666667</v>
       </c>
       <c r="H7">
-        <v>3.95139261063296</v>
+        <v>14.997218</v>
       </c>
       <c r="I7">
-        <v>0.5969914389351504</v>
+        <v>0.6376518934716313</v>
       </c>
       <c r="J7">
-        <v>0.5969914389351504</v>
+        <v>0.6501890059870105</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.547781365742757</v>
+        <v>0.01806466666666666</v>
       </c>
       <c r="N7">
-        <v>0.547781365742757</v>
+        <v>0.05419399999999999</v>
       </c>
       <c r="O7">
-        <v>0.1591121304710512</v>
+        <v>0.004820411347579552</v>
       </c>
       <c r="P7">
-        <v>0.1591121304710512</v>
+        <v>0.005087495363717804</v>
       </c>
       <c r="Q7">
-        <v>2.164499240838361</v>
+        <v>0.09030658136577777</v>
       </c>
       <c r="R7">
-        <v>2.164499240838361</v>
+        <v>0.8127592322919999</v>
       </c>
       <c r="S7">
-        <v>0.09498857972195025</v>
+        <v>0.003073744423096239</v>
       </c>
       <c r="T7">
-        <v>0.09498857972195025</v>
+        <v>0.003307833553499204</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.464311389585786</v>
+        <v>4.999072666666667</v>
       </c>
       <c r="H8">
-        <v>0.464311389585786</v>
+        <v>14.997218</v>
       </c>
       <c r="I8">
-        <v>0.07014993241544669</v>
+        <v>0.6376518934716313</v>
       </c>
       <c r="J8">
-        <v>0.07014993241544669</v>
+        <v>0.6501890059870105</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>2.8783055092127</v>
+        <v>0.057175</v>
       </c>
       <c r="N8">
-        <v>2.8783055092127</v>
+        <v>0.171525</v>
       </c>
       <c r="O8">
-        <v>0.83605129775894</v>
+        <v>0.01525668997294134</v>
       </c>
       <c r="P8">
-        <v>0.83605129775894</v>
+        <v>0.0161020157630309</v>
       </c>
       <c r="Q8">
-        <v>1.336430030634972</v>
+        <v>0.2858219797166667</v>
       </c>
       <c r="R8">
-        <v>1.336430030634972</v>
+        <v>2.57239781745</v>
       </c>
       <c r="S8">
-        <v>0.05864894203363614</v>
+        <v>0.009728457249355695</v>
       </c>
       <c r="T8">
-        <v>0.05864894203363614</v>
+        <v>0.01046935362335224</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.464311389585786</v>
+        <v>4.999072666666667</v>
       </c>
       <c r="H9">
-        <v>0.464311389585786</v>
+        <v>14.997218</v>
       </c>
       <c r="I9">
-        <v>0.07014993241544669</v>
+        <v>0.6376518934716313</v>
       </c>
       <c r="J9">
-        <v>0.07014993241544669</v>
+        <v>0.6501890059870105</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.0166510490548062</v>
+        <v>0.590216</v>
       </c>
       <c r="N9">
-        <v>0.0166510490548062</v>
+        <v>1.180432</v>
       </c>
       <c r="O9">
-        <v>0.004836571770008642</v>
+        <v>0.1574944036566601</v>
       </c>
       <c r="P9">
-        <v>0.004836571770008642</v>
+        <v>0.1108137861605369</v>
       </c>
       <c r="Q9">
-        <v>0.007731271724698154</v>
+        <v>2.950532673029333</v>
       </c>
       <c r="R9">
-        <v>0.007731271724698154</v>
+        <v>17.703196038176</v>
       </c>
       <c r="S9">
-        <v>0.0003392851827885636</v>
+        <v>0.1004266047028548</v>
       </c>
       <c r="T9">
-        <v>0.0003392851827885636</v>
+        <v>0.0720499054733766</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,247 +1021,743 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.464311389585786</v>
+        <v>0.4894313333333333</v>
       </c>
       <c r="H10">
-        <v>0.464311389585786</v>
+        <v>1.468294</v>
       </c>
       <c r="I10">
-        <v>0.07014993241544669</v>
+        <v>0.06242894177260312</v>
       </c>
       <c r="J10">
-        <v>0.07014993241544669</v>
+        <v>0.06365638056049405</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.547781365742757</v>
+        <v>3.082080666666666</v>
       </c>
       <c r="N10">
-        <v>0.547781365742757</v>
+        <v>9.246241999999999</v>
       </c>
       <c r="O10">
-        <v>0.1591121304710512</v>
+        <v>0.822428495022819</v>
       </c>
       <c r="P10">
-        <v>0.1591121304710512</v>
+        <v>0.8679967027127143</v>
       </c>
       <c r="Q10">
-        <v>0.2543411271172192</v>
+        <v>1.508466850127555</v>
       </c>
       <c r="R10">
-        <v>0.2543411271172192</v>
+        <v>13.576201651148</v>
       </c>
       <c r="S10">
-        <v>0.01116170519902198</v>
+        <v>0.05134334062790918</v>
       </c>
       <c r="T10">
-        <v>0.01116170519902198</v>
+        <v>0.05525352843313457</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.453418766757619</v>
+        <v>0.4894313333333333</v>
       </c>
       <c r="H11">
-        <v>0.453418766757619</v>
+        <v>1.468294</v>
       </c>
       <c r="I11">
-        <v>0.06850423348933475</v>
+        <v>0.06242894177260312</v>
       </c>
       <c r="J11">
-        <v>0.06850423348933475</v>
+        <v>0.06365638056049405</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.8783055092127</v>
+        <v>0.01806466666666666</v>
       </c>
       <c r="N11">
-        <v>2.8783055092127</v>
+        <v>0.05419399999999999</v>
       </c>
       <c r="O11">
-        <v>0.83605129775894</v>
+        <v>0.004820411347579552</v>
       </c>
       <c r="P11">
-        <v>0.83605129775894</v>
+        <v>0.005087495363717804</v>
       </c>
       <c r="Q11">
-        <v>1.305077734338883</v>
+        <v>0.008841413892888887</v>
       </c>
       <c r="R11">
-        <v>1.305077734338883</v>
+        <v>0.07957272503599999</v>
       </c>
       <c r="S11">
-        <v>0.05727305331073976</v>
+        <v>0.0003009331793380392</v>
       </c>
       <c r="T11">
-        <v>0.05727305331073976</v>
+        <v>0.0003238515409725696</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.453418766757619</v>
+        <v>0.4894313333333333</v>
       </c>
       <c r="H12">
-        <v>0.453418766757619</v>
+        <v>1.468294</v>
       </c>
       <c r="I12">
-        <v>0.06850423348933475</v>
+        <v>0.06242894177260312</v>
       </c>
       <c r="J12">
-        <v>0.06850423348933475</v>
+        <v>0.06365638056049405</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.0166510490548062</v>
+        <v>0.057175</v>
       </c>
       <c r="N12">
-        <v>0.0166510490548062</v>
+        <v>0.171525</v>
       </c>
       <c r="O12">
-        <v>0.004836571770008642</v>
+        <v>0.01525668997294134</v>
       </c>
       <c r="P12">
-        <v>0.004836571770008642</v>
+        <v>0.0161020157630309</v>
       </c>
       <c r="Q12">
-        <v>0.007549898127650844</v>
+        <v>0.02798323648333333</v>
       </c>
       <c r="R12">
-        <v>0.007549898127650844</v>
+        <v>0.25184912835</v>
       </c>
       <c r="S12">
-        <v>0.0003313256418205971</v>
+        <v>0.0009524590099634126</v>
       </c>
       <c r="T12">
-        <v>0.0003313256418205971</v>
+        <v>0.001024996043202569</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.4894313333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.468294</v>
+      </c>
+      <c r="I13">
+        <v>0.06242894177260312</v>
+      </c>
+      <c r="J13">
+        <v>0.06365638056049405</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.590216</v>
+      </c>
+      <c r="N13">
+        <v>1.180432</v>
+      </c>
+      <c r="O13">
+        <v>0.1574944036566601</v>
+      </c>
+      <c r="P13">
+        <v>0.1108137861605369</v>
+      </c>
+      <c r="Q13">
+        <v>0.2888702038346667</v>
+      </c>
+      <c r="R13">
+        <v>1.733221223008</v>
+      </c>
+      <c r="S13">
+        <v>0.009832208955392489</v>
+      </c>
+      <c r="T13">
+        <v>0.007054004543184344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1271686666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.381506</v>
+      </c>
+      <c r="I14">
+        <v>0.01622087664997523</v>
+      </c>
+      <c r="J14">
+        <v>0.0165398013763673</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.082080666666666</v>
+      </c>
+      <c r="N14">
+        <v>9.246241999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.822428495022819</v>
+      </c>
+      <c r="P14">
+        <v>0.8679967027127143</v>
+      </c>
+      <c r="Q14">
+        <v>0.3919440889391111</v>
+      </c>
+      <c r="R14">
+        <v>3.527496800452</v>
+      </c>
+      <c r="S14">
+        <v>0.01334051117118991</v>
+      </c>
+      <c r="T14">
+        <v>0.01435649305821003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1271686666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.381506</v>
+      </c>
+      <c r="I15">
+        <v>0.01622087664997523</v>
+      </c>
+      <c r="J15">
+        <v>0.0165398013763673</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.01806466666666666</v>
+      </c>
+      <c r="N15">
+        <v>0.05419399999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.004820411347579552</v>
+      </c>
+      <c r="P15">
+        <v>0.005087495363717804</v>
+      </c>
+      <c r="Q15">
+        <v>0.002297259573777778</v>
+      </c>
+      <c r="R15">
+        <v>0.020675336164</v>
+      </c>
+      <c r="S15">
+        <v>7.819129787122878E-05</v>
+      </c>
+      <c r="T15">
+        <v>8.414616281908199E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1271686666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.381506</v>
+      </c>
+      <c r="I16">
+        <v>0.01622087664997523</v>
+      </c>
+      <c r="J16">
+        <v>0.0165398013763673</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.057175</v>
+      </c>
+      <c r="N16">
+        <v>0.171525</v>
+      </c>
+      <c r="O16">
+        <v>0.01525668997294134</v>
+      </c>
+      <c r="P16">
+        <v>0.0161020157630309</v>
+      </c>
+      <c r="Q16">
+        <v>0.007270868516666668</v>
+      </c>
+      <c r="R16">
+        <v>0.06543781665000001</v>
+      </c>
+      <c r="S16">
+        <v>0.0002474768861379953</v>
+      </c>
+      <c r="T16">
+        <v>0.0002663241424796664</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1271686666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.381506</v>
+      </c>
+      <c r="I17">
+        <v>0.01622087664997523</v>
+      </c>
+      <c r="J17">
+        <v>0.0165398013763673</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.590216</v>
+      </c>
+      <c r="N17">
+        <v>1.180432</v>
+      </c>
+      <c r="O17">
+        <v>0.1574944036566601</v>
+      </c>
+      <c r="P17">
+        <v>0.1108137861605369</v>
+      </c>
+      <c r="Q17">
+        <v>0.07505698176533333</v>
+      </c>
+      <c r="R17">
+        <v>0.450341890592</v>
+      </c>
+      <c r="S17">
+        <v>0.002554697294776092</v>
+      </c>
+      <c r="T17">
+        <v>0.001832838012858519</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.453508</v>
+      </c>
+      <c r="H18">
+        <v>0.907016</v>
+      </c>
+      <c r="I18">
+        <v>0.05784677562955995</v>
+      </c>
+      <c r="J18">
+        <v>0.03932274848937412</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.082080666666666</v>
+      </c>
+      <c r="N18">
+        <v>9.246241999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.822428495022819</v>
+      </c>
+      <c r="P18">
+        <v>0.8679967027127143</v>
+      </c>
+      <c r="Q18">
+        <v>1.397748238978667</v>
+      </c>
+      <c r="R18">
+        <v>8.386489433871999</v>
+      </c>
+      <c r="S18">
+        <v>0.04757483662294167</v>
+      </c>
+      <c r="T18">
+        <v>0.0341320160303781</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.453508</v>
+      </c>
+      <c r="H19">
+        <v>0.907016</v>
+      </c>
+      <c r="I19">
+        <v>0.05784677562955995</v>
+      </c>
+      <c r="J19">
+        <v>0.03932274848937412</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.01806466666666666</v>
+      </c>
+      <c r="N19">
+        <v>0.05419399999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.004820411347579552</v>
+      </c>
+      <c r="P19">
+        <v>0.005087495363717804</v>
+      </c>
+      <c r="Q19">
+        <v>0.008192470850666666</v>
+      </c>
+      <c r="R19">
+        <v>0.049154825104</v>
+      </c>
+      <c r="S19">
+        <v>0.0002788452536656191</v>
+      </c>
+      <c r="T19">
+        <v>0.0002000543006283321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.453418766757619</v>
-      </c>
-      <c r="H13">
-        <v>0.453418766757619</v>
-      </c>
-      <c r="I13">
-        <v>0.06850423348933475</v>
-      </c>
-      <c r="J13">
-        <v>0.06850423348933475</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.547781365742757</v>
-      </c>
-      <c r="N13">
-        <v>0.547781365742757</v>
-      </c>
-      <c r="O13">
-        <v>0.1591121304710512</v>
-      </c>
-      <c r="P13">
-        <v>0.1591121304710512</v>
-      </c>
-      <c r="Q13">
-        <v>0.2483743513078851</v>
-      </c>
-      <c r="R13">
-        <v>0.2483743513078851</v>
-      </c>
-      <c r="S13">
-        <v>0.01089985453677439</v>
-      </c>
-      <c r="T13">
-        <v>0.01089985453677439</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.453508</v>
+      </c>
+      <c r="H20">
+        <v>0.907016</v>
+      </c>
+      <c r="I20">
+        <v>0.05784677562955995</v>
+      </c>
+      <c r="J20">
+        <v>0.03932274848937412</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.057175</v>
+      </c>
+      <c r="N20">
+        <v>0.171525</v>
+      </c>
+      <c r="O20">
+        <v>0.01525668997294134</v>
+      </c>
+      <c r="P20">
+        <v>0.0161020157630309</v>
+      </c>
+      <c r="Q20">
+        <v>0.0259293199</v>
+      </c>
+      <c r="R20">
+        <v>0.1555759194</v>
+      </c>
+      <c r="S20">
+        <v>0.0008825503217144946</v>
+      </c>
+      <c r="T20">
+        <v>0.0006331755160216015</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.453508</v>
+      </c>
+      <c r="H21">
+        <v>0.907016</v>
+      </c>
+      <c r="I21">
+        <v>0.05784677562955995</v>
+      </c>
+      <c r="J21">
+        <v>0.03932274848937412</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.590216</v>
+      </c>
+      <c r="N21">
+        <v>1.180432</v>
+      </c>
+      <c r="O21">
+        <v>0.1574944036566601</v>
+      </c>
+      <c r="P21">
+        <v>0.1108137861605369</v>
+      </c>
+      <c r="Q21">
+        <v>0.267667677728</v>
+      </c>
+      <c r="R21">
+        <v>1.070670710912</v>
+      </c>
+      <c r="S21">
+        <v>0.009110543431238165</v>
+      </c>
+      <c r="T21">
+        <v>0.004357502642346077</v>
       </c>
     </row>
   </sheetData>
